--- a/medicine/Sexualité et sexologie/Asthénospermie/Asthénospermie.xlsx
+++ b/medicine/Sexualité et sexologie/Asthénospermie/Asthénospermie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asth%C3%A9nospermie</t>
+          <t>Asthénospermie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'asthénospermie ou asthénozoospermie est l'une des anomalies liées à l'infertilité masculine. Elle est caractérisée par une mobilité réduite des spermatozoïdes[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'asthénospermie ou asthénozoospermie est l'une des anomalies liées à l'infertilité masculine. Elle est caractérisée par une mobilité réduite des spermatozoïdes. 
 On peut la détecter grâce à un spermogramme.
 Si tous les spermatozoïdes sont immobiles, on parle alors d'akinésie.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asth%C3%A9nospermie</t>
+          <t>Asthénospermie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Asthénospermie et grossesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En fonction du degré d’asthénospermie, on utilisera différentes techniques. Si elle est légère ou modérée (spermatozoïdes immobiles ou peu mobiles entre 60 et 75%[2]), une FIV classique peut aboutir à la fécondation de l’ovule. 
-Dans les cas les plus sévères, la FIV ICSI (injection intra-cytoplasmique de spermatozoïde) devra être pratiquée car il n'est pas nécessaire que le spermatozoïde injecté soit mobile[3].
-Dans tous les cas, il faut que le délai entre le recueil, la préparation et l'insémination soit le plus court possible[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En fonction du degré d’asthénospermie, on utilisera différentes techniques. Si elle est légère ou modérée (spermatozoïdes immobiles ou peu mobiles entre 60 et 75%), une FIV classique peut aboutir à la fécondation de l’ovule. 
+Dans les cas les plus sévères, la FIV ICSI (injection intra-cytoplasmique de spermatozoïde) devra être pratiquée car il n'est pas nécessaire que le spermatozoïde injecté soit mobile.
+Dans tous les cas, il faut que le délai entre le recueil, la préparation et l'insémination soit le plus court possible. 
 </t>
         </is>
       </c>
